--- a/jupyter/fashion-2k.xlsx
+++ b/jupyter/fashion-2k.xlsx
@@ -8,16 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\abe\fltk-testbed\jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF9FFD6-4B39-4E77-886A-F6CBB626ACDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D536D6-EC51-4362-B581-A526ED9F7EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AvgProcessorUtil" sheetId="1" r:id="rId1"/>
-    <sheet name="AvgTrainTime" sheetId="3" r:id="rId2"/>
-    <sheet name="AvgAccuracy" sheetId="4" r:id="rId3"/>
+    <sheet name="AvgAccuracy" sheetId="4" r:id="rId1"/>
+    <sheet name="AvgProcessorUtil" sheetId="1" r:id="rId2"/>
+    <sheet name="AvgTrainTime" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -122,11 +133,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,11 +440,594 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC886D8-5C88-45FC-AA5B-C5C06F807112}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="5" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>89.472999999999999</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>89.472999999999999</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>89.864000000000004</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>89.864000000000004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>88.516000000000005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>88.516000000000005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>89.116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>89.116</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>89.472999999999999</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>89.472999999999999</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>89.864000000000004</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>89.864000000000004</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>88.516000000000005</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>88.516000000000005</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>89.116</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>89.116</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>84.786000000000001</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>84.786000000000001</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>85.8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>85.8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>84.825999999999993</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>84.825999999999993</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>85.8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>85.8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>84.786000000000001</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>84.786000000000001</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>85.8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>85.8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>84.825999999999993</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>84.825999999999993</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>85.8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>85.8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,6 +1056,9 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>26.433</v>
+      </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -475,6 +1073,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>26.466000000000001</v>
+      </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -489,6 +1090,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>26.4</v>
+      </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -503,6 +1107,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>26.46</v>
+      </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -517,6 +1124,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>26.466000000000001</v>
+      </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -531,6 +1141,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>26.466000000000001</v>
+      </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -545,6 +1158,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>26.52</v>
+      </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -559,6 +1175,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>26.5</v>
+      </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -573,6 +1192,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>49.633000000000003</v>
+      </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -587,6 +1209,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>49.698999999999998</v>
+      </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
@@ -601,6 +1226,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>49.64</v>
+      </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
@@ -615,6 +1243,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>49.698999999999998</v>
+      </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
@@ -629,6 +1260,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>47.033000000000001</v>
+      </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
@@ -643,6 +1277,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>47.066000000000003</v>
+      </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
@@ -657,6 +1294,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>47.1</v>
+      </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
@@ -670,7 +1310,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>47.04</v>
+      </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
@@ -684,7 +1327,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>27.132000000000001</v>
+      </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
@@ -698,7 +1344,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>26.096</v>
+      </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
@@ -712,7 +1361,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>22.995999999999999</v>
+      </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
@@ -726,7 +1378,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>26.276</v>
+      </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
@@ -740,7 +1395,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>25.231999999999999</v>
+      </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
@@ -754,7 +1412,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22.963999999999999</v>
+      </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
@@ -768,7 +1429,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>25.8</v>
+      </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
@@ -782,7 +1446,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25.916</v>
+      </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
@@ -796,7 +1463,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>49.963999999999999</v>
+      </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
@@ -810,7 +1480,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>46.295999999999999</v>
+      </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
@@ -824,7 +1497,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>49.16</v>
+      </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
@@ -838,7 +1514,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>48.375999999999998</v>
+      </c>
       <c r="B29" t="s">
         <v>12</v>
       </c>
@@ -852,7 +1531,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>43.264000000000003</v>
+      </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
@@ -866,7 +1548,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>46</v>
+      </c>
       <c r="B31" t="s">
         <v>12</v>
       </c>
@@ -880,7 +1565,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>44.6</v>
+      </c>
       <c r="B32" t="s">
         <v>12</v>
       </c>
@@ -894,7 +1582,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>43.34</v>
+      </c>
       <c r="B33" t="s">
         <v>12</v>
       </c>
@@ -913,12 +1604,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D708A7-956E-4361-BDCB-ACF575AB70D5}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,6 +1638,9 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>121365.333</v>
+      </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -961,6 +1655,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>127693</v>
+      </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -975,6 +1672,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>187203.4</v>
+      </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -989,6 +1689,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>190833.4</v>
+      </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -1003,6 +1706,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>109053</v>
+      </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -1017,6 +1723,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>113149.333</v>
+      </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -1031,6 +1740,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>173579</v>
+      </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -1045,6 +1757,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>175561.8</v>
+      </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -1059,6 +1774,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>63512</v>
+      </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -1073,6 +1791,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>63308.332999999999</v>
+      </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
@@ -1087,6 +1808,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>97141.4</v>
+      </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
@@ -1101,6 +1825,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>96888.2</v>
+      </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
@@ -1115,6 +1842,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>60174</v>
+      </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
@@ -1129,6 +1859,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>59976</v>
+      </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
@@ -1143,6 +1876,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>92859.6</v>
+      </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
@@ -1156,7 +1892,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>90209.2</v>
+      </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
@@ -1170,7 +1909,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>45753.332999999999</v>
+      </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
@@ -1183,8 +1925,12 @@
       <c r="E18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>43096.332999999999</v>
+      </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
@@ -1198,7 +1944,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>64275.4</v>
+      </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
@@ -1212,7 +1961,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>65557.399999999994</v>
+      </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
@@ -1226,7 +1978,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>33867.665999999997</v>
+      </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
@@ -1240,7 +1995,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>36037.332999999999</v>
+      </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
@@ -1254,7 +2012,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>51914.400000000001</v>
+      </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
@@ -1268,7 +2029,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>51583.6</v>
+      </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
@@ -1282,7 +2046,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>22667.666000000001</v>
+      </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
@@ -1296,7 +2063,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>22021.666000000001</v>
+      </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
@@ -1310,7 +2080,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>32920</v>
+      </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
@@ -1324,7 +2097,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>35067.800000000003</v>
+      </c>
       <c r="B29" t="s">
         <v>12</v>
       </c>
@@ -1338,7 +2114,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>19401</v>
+      </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
@@ -1352,7 +2131,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>18226.332999999999</v>
+      </c>
       <c r="B31" t="s">
         <v>12</v>
       </c>
@@ -1366,7 +2148,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>28355</v>
+      </c>
       <c r="B32" t="s">
         <v>12</v>
       </c>
@@ -1380,493 +2165,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC886D8-5C88-45FC-AA5B-C5C06F807112}">
-  <dimension ref="A1:E33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="5" width="11.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>28336.2</v>
+      </c>
       <c r="B33" t="s">
         <v>12</v>
       </c>
